--- a/Article/fpga测试数据图.xlsx
+++ b/Article/fpga测试数据图.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dekstop\zfl_workspace\SharedScheduler\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dekstop\zfl_workspace\SharedScheduler\Article\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59FDF167-AA88-41C6-BC1D-FA6225DC7B92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C37C6EE-BB9C-4649-8A02-271A3704AFF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4E9BAA9F-932A-418A-9457-E7792EE35971}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{4E9BAA9F-932A-418A-9457-E7792EE35971}"/>
   </bookViews>
   <sheets>
     <sheet name="apmr" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="100">
   <si>
     <t>线程1、数量1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -416,12 +416,41 @@
     <t>抖动平均值</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>负载重的情况下，线程比协程时延低的原因分析以及数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户端（调度次数）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务端（调度次数）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>线程模型客户端与服务端进程被调度的次数波动范围较大，服务端调度的次数较少时，它注册的内核协程较少，所以客户端被调度次数会增加，它发送的消息和接受的消息会增加，因此它的吞吐量比协程高，因为最后的统计是在客户端中进行，所以统计的时延会降低。第7组数据吞吐量为0是因为服务端用线程处理（只有1/3的线程读数据），进行了很多无效的切换。协程模型每条连接，服务端的处理过程会比线程模型会多注册一个内核协程，从而导致客户端被调度的次数减少。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>最后的结论：目前的测试环境，服务端进程和客户端进程的行为会相互影响各自的调度，需要在添加网络之后进行测试，将客户端和服务端的进程隔离开来进行测试。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -445,13 +474,27 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -468,7 +511,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -481,8 +524,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -10853,15 +10902,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F05109EE-5461-47E7-81D5-261237BFBDE8}">
   <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1" s="4"/>
-      <c r="B1" s="4"/>
+      <c r="A1" s="5"/>
+      <c r="B1" s="5"/>
       <c r="C1">
         <v>1</v>
       </c>
@@ -10897,10 +10946,10 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4"/>
+      <c r="B2" s="5"/>
       <c r="C2">
         <v>8956</v>
       </c>
@@ -10937,10 +10986,10 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="4"/>
+      <c r="B3" s="5"/>
       <c r="C3">
         <v>6198</v>
       </c>
@@ -10977,10 +11026,10 @@
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="4"/>
+      <c r="B4" s="5"/>
       <c r="C4">
         <v>4502</v>
       </c>
@@ -11017,10 +11066,10 @@
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="4"/>
+      <c r="B5" s="5"/>
       <c r="C5">
         <v>4480</v>
       </c>
@@ -11057,10 +11106,10 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="4"/>
+      <c r="B6" s="5"/>
       <c r="C6">
         <v>21027</v>
       </c>
@@ -11097,14 +11146,14 @@
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="4"/>
+      <c r="B8" s="5"/>
       <c r="C8">
         <v>9143</v>
       </c>
@@ -11141,10 +11190,10 @@
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="4"/>
+      <c r="B9" s="5"/>
       <c r="C9">
         <v>6288</v>
       </c>
@@ -11181,10 +11230,10 @@
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="4"/>
+      <c r="B10" s="5"/>
       <c r="C10">
         <v>4557</v>
       </c>
@@ -11221,10 +11270,10 @@
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="4"/>
+      <c r="B11" s="5"/>
       <c r="C11">
         <v>4479</v>
       </c>
@@ -11261,10 +11310,10 @@
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="4"/>
+      <c r="B12" s="5"/>
       <c r="C12">
         <v>18756</v>
       </c>
@@ -11301,14 +11350,14 @@
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="4"/>
+      <c r="B14" s="5"/>
       <c r="C14">
         <v>9800</v>
       </c>
@@ -11345,10 +11394,10 @@
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="4"/>
+      <c r="B15" s="5"/>
       <c r="C15">
         <v>6262</v>
       </c>
@@ -11385,10 +11434,10 @@
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="4"/>
+      <c r="B16" s="5"/>
       <c r="C16">
         <v>4660</v>
       </c>
@@ -11425,10 +11474,10 @@
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="4"/>
+      <c r="B17" s="5"/>
       <c r="C17">
         <v>4718</v>
       </c>
@@ -11465,10 +11514,10 @@
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="4"/>
+      <c r="B18" s="5"/>
       <c r="C18">
         <v>14729</v>
       </c>
@@ -11505,14 +11554,14 @@
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="4"/>
+      <c r="B20" s="5"/>
       <c r="C20">
         <v>12895</v>
       </c>
@@ -11549,10 +11598,10 @@
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B21" s="4"/>
+      <c r="B21" s="5"/>
       <c r="C21">
         <v>6781</v>
       </c>
@@ -11589,10 +11638,10 @@
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A22" s="4" t="s">
+      <c r="A22" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B22" s="4"/>
+      <c r="B22" s="5"/>
       <c r="C22">
         <v>5212</v>
       </c>
@@ -11629,10 +11678,10 @@
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A23" s="4" t="s">
+      <c r="A23" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B23" s="4"/>
+      <c r="B23" s="5"/>
       <c r="C23">
         <v>5389</v>
       </c>
@@ -11669,10 +11718,10 @@
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A24" s="4" t="s">
+      <c r="A24" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B24" s="4"/>
+      <c r="B24" s="5"/>
       <c r="C24">
         <v>13369</v>
       </c>
@@ -11743,10 +11792,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DF42233-FB1C-4EF5-80AB-D0A332E4B732}">
-  <dimension ref="A1:AG34"/>
+  <dimension ref="A1:AG100"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AG26" sqref="AG26"/>
+    <sheetView tabSelected="1" topLeftCell="A77" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A95" sqref="A95:O100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -11820,10 +11869,10 @@
       </c>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="4"/>
+      <c r="B2" s="5"/>
       <c r="C2" t="s">
         <v>66</v>
       </c>
@@ -11984,10 +12033,10 @@
       </c>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="4"/>
+      <c r="B4" s="5"/>
       <c r="C4" t="s">
         <v>51</v>
       </c>
@@ -12142,10 +12191,10 @@
       </c>
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="4"/>
+      <c r="B6" s="5"/>
       <c r="C6" t="s">
         <v>52</v>
       </c>
@@ -12300,10 +12349,10 @@
       </c>
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="4"/>
+      <c r="B8" s="5"/>
       <c r="C8" t="s">
         <v>53</v>
       </c>
@@ -12458,10 +12507,10 @@
       </c>
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="4"/>
+      <c r="B10" s="5"/>
       <c r="C10" t="s">
         <v>54</v>
       </c>
@@ -12616,10 +12665,10 @@
       </c>
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="4"/>
+      <c r="B12" s="5"/>
       <c r="C12" t="s">
         <v>55</v>
       </c>
@@ -12774,10 +12823,10 @@
       </c>
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="4"/>
+      <c r="B14" s="5"/>
       <c r="C14" t="s">
         <v>56</v>
       </c>
@@ -12932,10 +12981,10 @@
       </c>
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="4"/>
+      <c r="B16" s="5"/>
       <c r="C16" t="s">
         <v>57</v>
       </c>
@@ -13016,8 +13065,8 @@
       </c>
     </row>
     <row r="17" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
       <c r="D17">
         <v>3543140</v>
       </c>
@@ -13096,10 +13145,10 @@
       <c r="T18" s="1"/>
     </row>
     <row r="19" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="4"/>
+      <c r="B19" s="5"/>
       <c r="C19" t="s">
         <v>58</v>
       </c>
@@ -13254,10 +13303,10 @@
       </c>
     </row>
     <row r="21" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="4"/>
+      <c r="B21" s="5"/>
       <c r="C21" t="s">
         <v>59</v>
       </c>
@@ -13412,10 +13461,10 @@
       </c>
     </row>
     <row r="23" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A23" s="4" t="s">
+      <c r="A23" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B23" s="4"/>
+      <c r="B23" s="5"/>
       <c r="C23" t="s">
         <v>60</v>
       </c>
@@ -13570,10 +13619,10 @@
       </c>
     </row>
     <row r="25" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A25" s="4" t="s">
+      <c r="A25" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B25" s="4"/>
+      <c r="B25" s="5"/>
       <c r="C25" t="s">
         <v>61</v>
       </c>
@@ -13728,10 +13777,10 @@
       </c>
     </row>
     <row r="27" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A27" s="4" t="s">
+      <c r="A27" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B27" s="4"/>
+      <c r="B27" s="5"/>
       <c r="C27" t="s">
         <v>62</v>
       </c>
@@ -13886,10 +13935,10 @@
       </c>
     </row>
     <row r="29" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A29" s="4" t="s">
+      <c r="A29" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B29" s="4"/>
+      <c r="B29" s="5"/>
       <c r="C29" t="s">
         <v>63</v>
       </c>
@@ -14044,10 +14093,10 @@
       </c>
     </row>
     <row r="31" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A31" s="4" t="s">
+      <c r="A31" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B31" s="4"/>
+      <c r="B31" s="5"/>
       <c r="C31" t="s">
         <v>64</v>
       </c>
@@ -14202,10 +14251,10 @@
       </c>
     </row>
     <row r="33" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A33" s="4" t="s">
+      <c r="A33" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B33" s="4"/>
+      <c r="B33" s="5"/>
       <c r="C33" t="s">
         <v>65</v>
       </c>
@@ -14286,8 +14335,8 @@
       </c>
     </row>
     <row r="34" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A34" s="4"/>
-      <c r="B34" s="4"/>
+      <c r="A34" s="5"/>
+      <c r="B34" s="5"/>
       <c r="D34">
         <v>3494520</v>
       </c>
@@ -14357,8 +14406,514 @@
         <v>1023986.8</v>
       </c>
     </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A85" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B85" s="5"/>
+      <c r="C85" s="5"/>
+      <c r="D85" s="5"/>
+      <c r="E85" s="5"/>
+      <c r="F85" s="5"/>
+      <c r="G85" s="5"/>
+      <c r="H85" s="5"/>
+      <c r="I85" s="5"/>
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A86" s="1"/>
+      <c r="B86" s="1"/>
+      <c r="C86" s="1"/>
+      <c r="D86" s="1">
+        <v>1</v>
+      </c>
+      <c r="E86" s="1">
+        <v>2</v>
+      </c>
+      <c r="F86" s="1">
+        <v>3</v>
+      </c>
+      <c r="G86" s="1">
+        <v>4</v>
+      </c>
+      <c r="H86" s="1">
+        <v>5</v>
+      </c>
+      <c r="I86" s="1">
+        <v>6</v>
+      </c>
+      <c r="J86" s="1">
+        <v>7</v>
+      </c>
+      <c r="K86" s="1">
+        <v>8</v>
+      </c>
+      <c r="L86" s="1">
+        <v>9</v>
+      </c>
+      <c r="M86" s="1">
+        <v>10</v>
+      </c>
+      <c r="N86" s="1">
+        <v>11</v>
+      </c>
+      <c r="O86" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A87" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B87" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C87" s="5"/>
+      <c r="D87">
+        <v>2832</v>
+      </c>
+      <c r="E87">
+        <v>2736</v>
+      </c>
+      <c r="F87">
+        <v>2747</v>
+      </c>
+      <c r="G87">
+        <v>2804</v>
+      </c>
+      <c r="H87">
+        <v>2690</v>
+      </c>
+      <c r="I87">
+        <v>2633</v>
+      </c>
+      <c r="J87">
+        <v>2727</v>
+      </c>
+      <c r="K87">
+        <v>2744</v>
+      </c>
+      <c r="L87">
+        <v>2757</v>
+      </c>
+      <c r="M87">
+        <v>2692</v>
+      </c>
+      <c r="N87">
+        <v>2885</v>
+      </c>
+      <c r="O87">
+        <v>2712</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A88" s="5"/>
+      <c r="B88" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C88" s="5"/>
+      <c r="D88">
+        <v>3449</v>
+      </c>
+      <c r="E88">
+        <v>3427</v>
+      </c>
+      <c r="F88">
+        <v>3480</v>
+      </c>
+      <c r="G88">
+        <v>3389</v>
+      </c>
+      <c r="H88">
+        <v>3493</v>
+      </c>
+      <c r="I88">
+        <v>3581</v>
+      </c>
+      <c r="J88">
+        <v>3438</v>
+      </c>
+      <c r="K88">
+        <v>3451</v>
+      </c>
+      <c r="L88">
+        <v>3545</v>
+      </c>
+      <c r="M88">
+        <v>3582</v>
+      </c>
+      <c r="N88">
+        <v>3460</v>
+      </c>
+      <c r="O88">
+        <v>3583</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A89" s="5"/>
+      <c r="B89" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C89" s="5"/>
+      <c r="D89">
+        <v>639</v>
+      </c>
+      <c r="E89">
+        <v>617</v>
+      </c>
+      <c r="F89">
+        <v>640</v>
+      </c>
+      <c r="G89">
+        <v>645</v>
+      </c>
+      <c r="H89">
+        <v>653</v>
+      </c>
+      <c r="I89">
+        <v>667</v>
+      </c>
+      <c r="J89">
+        <v>648</v>
+      </c>
+      <c r="K89">
+        <v>645</v>
+      </c>
+      <c r="L89">
+        <v>620</v>
+      </c>
+      <c r="M89">
+        <v>646</v>
+      </c>
+      <c r="N89">
+        <v>593</v>
+      </c>
+      <c r="O89">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A90" s="5"/>
+      <c r="B90" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C90" s="5"/>
+      <c r="D90">
+        <v>1185476</v>
+      </c>
+      <c r="E90">
+        <v>1188356</v>
+      </c>
+      <c r="F90">
+        <v>1146857</v>
+      </c>
+      <c r="G90">
+        <v>1077787</v>
+      </c>
+      <c r="H90">
+        <v>1020075</v>
+      </c>
+      <c r="I90">
+        <v>1089206</v>
+      </c>
+      <c r="J90">
+        <v>1215046</v>
+      </c>
+      <c r="K90">
+        <v>1106343</v>
+      </c>
+      <c r="L90">
+        <v>1271410</v>
+      </c>
+      <c r="M90">
+        <v>1179841</v>
+      </c>
+      <c r="N90">
+        <v>1230114</v>
+      </c>
+      <c r="O90">
+        <v>1294734</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A91" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B91" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C91" s="5"/>
+      <c r="D91">
+        <v>3171</v>
+      </c>
+      <c r="E91" s="4">
+        <v>3374</v>
+      </c>
+      <c r="F91">
+        <v>2913</v>
+      </c>
+      <c r="G91">
+        <v>2929</v>
+      </c>
+      <c r="H91">
+        <v>2860</v>
+      </c>
+      <c r="I91">
+        <v>2540</v>
+      </c>
+      <c r="J91">
+        <v>2687</v>
+      </c>
+      <c r="K91">
+        <v>2963</v>
+      </c>
+      <c r="L91" s="4">
+        <v>3266</v>
+      </c>
+      <c r="M91">
+        <v>3116</v>
+      </c>
+      <c r="N91">
+        <v>2966</v>
+      </c>
+      <c r="O91">
+        <v>3064</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A92" s="5"/>
+      <c r="B92" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C92" s="5"/>
+      <c r="D92">
+        <v>3028</v>
+      </c>
+      <c r="E92" s="4">
+        <v>2516</v>
+      </c>
+      <c r="F92">
+        <v>2899</v>
+      </c>
+      <c r="G92">
+        <v>3134</v>
+      </c>
+      <c r="H92">
+        <v>3119</v>
+      </c>
+      <c r="I92">
+        <v>3149</v>
+      </c>
+      <c r="J92">
+        <v>2943</v>
+      </c>
+      <c r="K92">
+        <v>3111</v>
+      </c>
+      <c r="L92" s="4">
+        <v>2885</v>
+      </c>
+      <c r="M92">
+        <v>2964</v>
+      </c>
+      <c r="N92">
+        <v>3006</v>
+      </c>
+      <c r="O92">
+        <v>3106</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A93" s="5"/>
+      <c r="B93" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C93" s="5"/>
+      <c r="D93">
+        <v>406</v>
+      </c>
+      <c r="E93" s="4">
+        <v>904</v>
+      </c>
+      <c r="F93">
+        <v>182</v>
+      </c>
+      <c r="G93">
+        <v>260</v>
+      </c>
+      <c r="H93">
+        <v>37</v>
+      </c>
+      <c r="I93">
+        <v>91</v>
+      </c>
+      <c r="J93">
+        <v>0</v>
+      </c>
+      <c r="K93">
+        <v>182</v>
+      </c>
+      <c r="L93" s="4">
+        <v>697</v>
+      </c>
+      <c r="M93">
+        <v>452</v>
+      </c>
+      <c r="N93">
+        <v>248</v>
+      </c>
+      <c r="O93">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A94" s="5"/>
+      <c r="B94" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C94" s="5"/>
+      <c r="D94">
+        <v>691617</v>
+      </c>
+      <c r="E94" s="4">
+        <v>1051881</v>
+      </c>
+      <c r="F94">
+        <v>627716</v>
+      </c>
+      <c r="G94">
+        <v>681333</v>
+      </c>
+      <c r="H94">
+        <v>296588</v>
+      </c>
+      <c r="I94">
+        <v>510817</v>
+      </c>
+      <c r="J94">
+        <v>0</v>
+      </c>
+      <c r="K94">
+        <v>473196</v>
+      </c>
+      <c r="L94" s="4">
+        <v>925021</v>
+      </c>
+      <c r="M94">
+        <v>861487</v>
+      </c>
+      <c r="N94">
+        <v>476684</v>
+      </c>
+      <c r="O94">
+        <v>651692</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A95" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="B95" s="6"/>
+      <c r="C95" s="6"/>
+      <c r="D95" s="6"/>
+      <c r="E95" s="6"/>
+      <c r="F95" s="6"/>
+      <c r="G95" s="6"/>
+      <c r="H95" s="6"/>
+      <c r="I95" s="6"/>
+      <c r="J95" s="6"/>
+      <c r="K95" s="6"/>
+      <c r="L95" s="6"/>
+      <c r="M95" s="6"/>
+      <c r="N95" s="6"/>
+      <c r="O95" s="6"/>
+    </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A96" s="6"/>
+      <c r="B96" s="6"/>
+      <c r="C96" s="6"/>
+      <c r="D96" s="6"/>
+      <c r="E96" s="6"/>
+      <c r="F96" s="6"/>
+      <c r="G96" s="6"/>
+      <c r="H96" s="6"/>
+      <c r="I96" s="6"/>
+      <c r="J96" s="6"/>
+      <c r="K96" s="6"/>
+      <c r="L96" s="6"/>
+      <c r="M96" s="6"/>
+      <c r="N96" s="6"/>
+      <c r="O96" s="6"/>
+    </row>
+    <row r="97" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A97" s="6"/>
+      <c r="B97" s="6"/>
+      <c r="C97" s="6"/>
+      <c r="D97" s="6"/>
+      <c r="E97" s="6"/>
+      <c r="F97" s="6"/>
+      <c r="G97" s="6"/>
+      <c r="H97" s="6"/>
+      <c r="I97" s="6"/>
+      <c r="J97" s="6"/>
+      <c r="K97" s="6"/>
+      <c r="L97" s="6"/>
+      <c r="M97" s="6"/>
+      <c r="N97" s="6"/>
+      <c r="O97" s="6"/>
+    </row>
+    <row r="98" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A98" s="6"/>
+      <c r="B98" s="6"/>
+      <c r="C98" s="6"/>
+      <c r="D98" s="6"/>
+      <c r="E98" s="6"/>
+      <c r="F98" s="6"/>
+      <c r="G98" s="6"/>
+      <c r="H98" s="6"/>
+      <c r="I98" s="6"/>
+      <c r="J98" s="6"/>
+      <c r="K98" s="6"/>
+      <c r="L98" s="6"/>
+      <c r="M98" s="6"/>
+      <c r="N98" s="6"/>
+      <c r="O98" s="6"/>
+    </row>
+    <row r="99" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A99" s="6"/>
+      <c r="B99" s="6"/>
+      <c r="C99" s="6"/>
+      <c r="D99" s="6"/>
+      <c r="E99" s="6"/>
+      <c r="F99" s="6"/>
+      <c r="G99" s="6"/>
+      <c r="H99" s="6"/>
+      <c r="I99" s="6"/>
+      <c r="J99" s="6"/>
+      <c r="K99" s="6"/>
+      <c r="L99" s="6"/>
+      <c r="M99" s="6"/>
+      <c r="N99" s="6"/>
+      <c r="O99" s="6"/>
+    </row>
+    <row r="100" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A100" s="6"/>
+      <c r="B100" s="6"/>
+      <c r="C100" s="6"/>
+      <c r="D100" s="6"/>
+      <c r="E100" s="6"/>
+      <c r="F100" s="6"/>
+      <c r="G100" s="6"/>
+      <c r="H100" s="6"/>
+      <c r="I100" s="6"/>
+      <c r="J100" s="6"/>
+      <c r="K100" s="6"/>
+      <c r="L100" s="6"/>
+      <c r="M100" s="6"/>
+      <c r="N100" s="6"/>
+      <c r="O100" s="6"/>
+    </row>
   </sheetData>
-  <mergeCells count="18">
+  <mergeCells count="30">
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A6:B6"/>
@@ -14377,6 +14932,18 @@
     <mergeCell ref="A25:B25"/>
     <mergeCell ref="A27:B27"/>
     <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A95:O100"/>
+    <mergeCell ref="A85:I85"/>
+    <mergeCell ref="A87:A90"/>
+    <mergeCell ref="A91:A94"/>
+    <mergeCell ref="B87:C87"/>
+    <mergeCell ref="B88:C88"/>
+    <mergeCell ref="B89:C89"/>
+    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="B91:C91"/>
+    <mergeCell ref="B92:C92"/>
+    <mergeCell ref="B93:C93"/>
+    <mergeCell ref="B94:C94"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14417,38 +14984,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="4"/>
-      <c r="S1" s="4"/>
-      <c r="T1" s="4"/>
-      <c r="U1" s="4"/>
-      <c r="V1" s="4"/>
-      <c r="W1" s="4"/>
-      <c r="X1" s="4"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="5"/>
+      <c r="T1" s="5"/>
+      <c r="U1" s="5"/>
+      <c r="V1" s="5"/>
+      <c r="W1" s="5"/>
+      <c r="X1" s="5"/>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="4"/>
+      <c r="B2" s="5"/>
       <c r="C2" s="1" t="s">
         <v>84</v>
       </c>
@@ -14658,7 +15225,7 @@
         <v>265446482</v>
       </c>
       <c r="E6">
-        <f t="shared" ref="E5:E61" si="10">POWER(D6,0.5)</f>
+        <f t="shared" ref="E6:E61" si="10">POWER(D6,0.5)</f>
         <v>16292.528410286723</v>
       </c>
       <c r="F6">
@@ -14845,7 +15412,7 @@
         <v>69646.253847568863</v>
       </c>
       <c r="Y8">
-        <f t="shared" ref="Y7:Y61" si="11">AVERAGE(E8,G8,I8,K8,M8,O8,Q8,S8,U8,W8)</f>
+        <f t="shared" ref="Y8:Y59" si="11">AVERAGE(E8,G8,I8,K8,M8,O8,Q8,S8,U8,W8)</f>
         <v>74897.613220573679</v>
       </c>
     </row>
@@ -15314,10 +15881,10 @@
       </c>
     </row>
     <row r="17" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B17" s="4"/>
+      <c r="B17" s="5"/>
       <c r="C17" s="1" t="s">
         <v>85</v>
       </c>
@@ -15548,7 +16115,7 @@
       </c>
       <c r="W20"/>
       <c r="X20" s="1">
-        <f t="shared" ref="X20:X31" si="12">AVERAGE(D20:V20)</f>
+        <f t="shared" ref="X20:X30" si="12">AVERAGE(D20:V20)</f>
         <v>118329.8</v>
       </c>
       <c r="Y20"/>
@@ -16245,10 +16812,10 @@
       </c>
     </row>
     <row r="32" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="4" t="s">
+      <c r="A32" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B32" s="4"/>
+      <c r="B32" s="5"/>
       <c r="C32" s="1" t="s">
         <v>86</v>
       </c>
@@ -16479,7 +17046,7 @@
       </c>
       <c r="W35"/>
       <c r="X35" s="1">
-        <f t="shared" ref="X34:X46" si="13">AVERAGE(D35:V35)</f>
+        <f t="shared" ref="X35:X45" si="13">AVERAGE(D35:V35)</f>
         <v>120205.8</v>
       </c>
       <c r="Y35"/>
@@ -17200,10 +17767,10 @@
       </c>
     </row>
     <row r="47" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A47" s="4" t="s">
+      <c r="A47" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B47" s="4"/>
+      <c r="B47" s="5"/>
       <c r="C47" s="1" t="s">
         <v>87</v>
       </c>
@@ -17406,7 +17973,7 @@
         <v>119965</v>
       </c>
       <c r="X50">
-        <f t="shared" ref="X49:X61" si="14">AVERAGE(D50:V50)</f>
+        <f t="shared" ref="X50:X60" si="14">AVERAGE(D50:V50)</f>
         <v>127182.3</v>
       </c>
     </row>
@@ -18079,8 +18646,8 @@
       </c>
     </row>
     <row r="62" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A62" s="4"/>
-      <c r="B62" s="4"/>
+      <c r="A62" s="5"/>
+      <c r="B62" s="5"/>
       <c r="C62" s="1"/>
     </row>
     <row r="63" spans="1:25" x14ac:dyDescent="0.2">
@@ -18096,34 +18663,34 @@
       <c r="C65" s="1"/>
     </row>
     <row r="66" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A66" s="4"/>
-      <c r="B66" s="4"/>
-      <c r="C66" s="4"/>
-      <c r="D66" s="4"/>
-      <c r="E66" s="4"/>
-      <c r="F66" s="4"/>
-      <c r="G66" s="4"/>
-      <c r="H66" s="4"/>
-      <c r="I66" s="4"/>
-      <c r="J66" s="4"/>
-      <c r="K66" s="4"/>
-      <c r="L66" s="4"/>
-      <c r="M66" s="4"/>
-      <c r="N66" s="4"/>
-      <c r="O66" s="4"/>
-      <c r="P66" s="4"/>
-      <c r="Q66" s="4"/>
-      <c r="R66" s="4"/>
-      <c r="S66" s="4"/>
-      <c r="T66" s="4"/>
-      <c r="U66" s="4"/>
-      <c r="V66" s="4"/>
-      <c r="W66" s="4"/>
-      <c r="X66" s="4"/>
+      <c r="A66" s="5"/>
+      <c r="B66" s="5"/>
+      <c r="C66" s="5"/>
+      <c r="D66" s="5"/>
+      <c r="E66" s="5"/>
+      <c r="F66" s="5"/>
+      <c r="G66" s="5"/>
+      <c r="H66" s="5"/>
+      <c r="I66" s="5"/>
+      <c r="J66" s="5"/>
+      <c r="K66" s="5"/>
+      <c r="L66" s="5"/>
+      <c r="M66" s="5"/>
+      <c r="N66" s="5"/>
+      <c r="O66" s="5"/>
+      <c r="P66" s="5"/>
+      <c r="Q66" s="5"/>
+      <c r="R66" s="5"/>
+      <c r="S66" s="5"/>
+      <c r="T66" s="5"/>
+      <c r="U66" s="5"/>
+      <c r="V66" s="5"/>
+      <c r="W66" s="5"/>
+      <c r="X66" s="5"/>
     </row>
     <row r="67" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A67" s="4"/>
-      <c r="B67" s="4"/>
+      <c r="A67" s="5"/>
+      <c r="B67" s="5"/>
       <c r="C67" s="1"/>
     </row>
     <row r="68" spans="1:24" x14ac:dyDescent="0.2">
@@ -18239,8 +18806,8 @@
       <c r="X81" s="3"/>
     </row>
     <row r="82" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A82" s="4"/>
-      <c r="B82" s="4"/>
+      <c r="A82" s="5"/>
+      <c r="B82" s="5"/>
       <c r="C82" s="1"/>
     </row>
     <row r="83" spans="1:24" x14ac:dyDescent="0.2">
@@ -18608,8 +19175,8 @@
       <c r="X96" s="2"/>
     </row>
     <row r="97" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A97" s="4"/>
-      <c r="B97" s="4"/>
+      <c r="A97" s="5"/>
+      <c r="B97" s="5"/>
       <c r="C97" s="1"/>
     </row>
     <row r="98" spans="1:24" x14ac:dyDescent="0.2">
@@ -18977,8 +19544,8 @@
       <c r="X111" s="2"/>
     </row>
     <row r="112" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A112" s="4"/>
-      <c r="B112" s="4"/>
+      <c r="A112" s="5"/>
+      <c r="B112" s="5"/>
       <c r="C112" s="1"/>
     </row>
     <row r="113" spans="2:3" x14ac:dyDescent="0.2">
@@ -19064,55 +19631,55 @@
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="4"/>
-      <c r="S1" s="4"/>
-      <c r="T1" s="4"/>
-      <c r="U1" s="4"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="5"/>
+      <c r="T1" s="5"/>
+      <c r="U1" s="5"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
       <c r="E2" s="1"/>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
-      <c r="L2" s="4" t="s">
+      <c r="L2" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
-      <c r="Q2" s="4" t="s">
+      <c r="Q2" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="R2" s="4"/>
-      <c r="S2" s="4"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
     </row>
